--- a/storm_lake.xlsx
+++ b/storm_lake.xlsx
@@ -26,7 +26,7 @@
         <b val="0"/>
         <sz val="9"/>
       </rPr>
-      <t>12/26/2024 05:06 AM</t>
+      <t>12/28/2024 09:48 AM</t>
     </r>
   </si>
   <si>

--- a/storm_lake.xlsx
+++ b/storm_lake.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="112" xml:space="preserve">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="117" xml:space="preserve">
   <si>
     <t>Inventory By Shop</t>
   </si>
@@ -26,7 +26,7 @@
         <b val="0"/>
         <sz val="9"/>
       </rPr>
-      <t>12/28/2024 09:48 AM</t>
+      <t>01/07/2025 08:55 PM</t>
     </r>
   </si>
   <si>
@@ -243,15 +243,24 @@
     <t>5756026</t>
   </si>
   <si>
+    <t>Stelpro 24" Baseboard Heater</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Echo Group, Inc.</t>
+  </si>
+  <si>
+    <t>Stelpro 48" Baseboard Heater</t>
+  </si>
+  <si>
     <t>Torrino Black Outdoor Wall Light</t>
   </si>
   <si>
     <t>LED</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>3564916</t>
   </si>
   <si>
@@ -361,6 +370,12 @@
   </si>
   <si>
     <t>6781269</t>
+  </si>
+  <si>
+    <t>Bathroom Sink Faucet</t>
+  </si>
+  <si>
+    <t>6739543</t>
   </si>
   <si>
     <t>Korky? Plus Toilet Flapper</t>
@@ -554,7 +569,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showRowColHeaders="1" showRuler="1" showWhiteSpace="0" showZeros="1" tabSelected="0" windowProtection="0" showOutlineSymbols="1" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0" workbookViewId="0" zoomScale="100"/>
   </sheetViews>
@@ -705,7 +720,7 @@
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="9" t="n">
-        <v>18.0</v>
+        <v>38.0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>18</v>
@@ -753,7 +768,7 @@
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="n">
-        <v>12.0</v>
+        <v>32.0</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>18</v>
@@ -801,7 +816,7 @@
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>29</v>
@@ -823,7 +838,7 @@
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>29</v>
@@ -871,7 +886,7 @@
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>29</v>
@@ -1069,66 +1084,64 @@
       <c r="B25" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>63</v>
-      </c>
+      <c r="C25" s="7"/>
       <c r="D25" s="9" t="n">
         <v>4.0</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="F25" s="9" t="n">
-        <v>21.31</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="7" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="9" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="F26" s="9" t="n">
-        <v>6.96</v>
+        <v>45.0</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="7" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="7"/>
+        <v>66</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="D27" s="9" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="F27" s="9" t="n">
-        <v>272.85</v>
+        <v>21.31</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>33</v>
@@ -1139,44 +1152,42 @@
         <v>69</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="9" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F28" s="9" t="n">
-        <v>373.43</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>73</v>
-      </c>
+        <v>6.96</v>
+      </c>
+      <c r="G28" s="7"/>
       <c r="H28" s="7" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="9" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>29</v>
       </c>
       <c r="F29" s="9" t="n">
-        <v>373.43</v>
+        <v>272.85</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>33</v>
@@ -1184,10 +1195,10 @@
     </row>
     <row r="30">
       <c r="A30" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="9" t="n">
@@ -1197,10 +1208,10 @@
         <v>29</v>
       </c>
       <c r="F30" s="9" t="n">
-        <v>272.85</v>
+        <v>373.43</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>33</v>
@@ -1208,23 +1219,23 @@
     </row>
     <row r="31">
       <c r="A31" s="7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="F31" s="9" t="n">
-        <v>11.76</v>
+        <v>373.43</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>33</v>
@@ -1232,23 +1243,23 @@
     </row>
     <row r="32">
       <c r="A32" s="7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="F32" s="9" t="n">
-        <v>127.33</v>
+        <v>272.85</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>33</v>
@@ -1256,23 +1267,23 @@
     </row>
     <row r="33">
       <c r="A33" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="9" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="F33" s="9" t="n">
-        <v>127.33</v>
+        <v>11.76</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>33</v>
@@ -1280,23 +1291,23 @@
     </row>
     <row r="34">
       <c r="A34" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="9" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F34" s="9" t="n">
-        <v>10.68</v>
+        <v>127.33</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>33</v>
@@ -1304,23 +1315,23 @@
     </row>
     <row r="35">
       <c r="A35" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="9" t="n">
         <v>2.0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F35" s="9" t="n">
-        <v>25.67</v>
+        <v>127.33</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>33</v>
@@ -1328,49 +1339,47 @@
     </row>
     <row r="36">
       <c r="A36" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B36" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D36" s="9" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" s="9" t="n">
-        <v>19.99</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>92</v>
-      </c>
       <c r="H36" s="7" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="9" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F37" s="9" t="n">
-        <v>12.82</v>
+        <v>25.67</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>33</v>
@@ -1378,47 +1387,49 @@
     </row>
     <row r="38">
       <c r="A38" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B38" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H38" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="9" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" s="9" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="9" t="n">
-        <v>-1.0</v>
+        <v>15.0</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F39" s="9" t="n">
         <v>12.82</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>33</v>
@@ -1426,23 +1437,23 @@
     </row>
     <row r="40">
       <c r="A40" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="9" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F40" s="9" t="n">
-        <v>8.55</v>
+        <v>12.29</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>33</v>
@@ -1450,25 +1461,23 @@
     </row>
     <row r="41">
       <c r="A41" s="7" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>53</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="C41" s="7"/>
       <c r="D41" s="9" t="n">
-        <v>6.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F41" s="9" t="n">
-        <v>4.26</v>
+        <v>12.82</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H41" s="7" t="s">
         <v>33</v>
@@ -1476,47 +1485,47 @@
     </row>
     <row r="42">
       <c r="A42" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="9" t="n">
-        <v>2.0</v>
+        <v>18.0</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F42" s="9" t="n">
-        <v>37.66</v>
+        <v>8.55</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>106</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="9" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F43" s="9" t="n">
-        <v>19.25</v>
+        <v>21.39</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>33</v>
@@ -1524,42 +1533,116 @@
     </row>
     <row r="44">
       <c r="A44" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B44" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="9" t="n">
+      <c r="C45" s="7"/>
+      <c r="D45" s="9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>37.66</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="9" t="n">
         <v>1.0</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E47" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F44" s="9" t="n">
+      <c r="F47" s="9" t="n">
         <v>105.93</v>
       </c>
-      <c r="G44" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45"/>
-    <row r="46">
-      <c r="A46" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="10" t="n">
-        <v>319.0</v>
-      </c>
-      <c r="E46" s="8"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
+      <c r="G47" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48"/>
+    <row r="49">
+      <c r="A49" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="10" t="n">
+        <v>399.0</v>
+      </c>
+      <c r="E49" s="8"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
